--- a/excel/citizen_data.xlsx
+++ b/excel/citizen_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoProjects\RTULab\exel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GoProjects\RTULab\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E66490-BF10-4FCF-B971-C9157FFD6AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29251940-6368-4B6C-ADB6-7F40954A8625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="30" windowWidth="28710" windowHeight="15570" xr2:uid="{CE2A2DA3-6B03-4556-913C-458E0B9F5BD1}"/>
+    <workbookView xWindow="465" yWindow="6390" windowWidth="28710" windowHeight="12210" xr2:uid="{CE2A2DA3-6B03-4556-913C-458E0B9F5BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>33-111</t>
-  </si>
-  <si>
-    <t>3dal123</t>
-  </si>
-  <si>
-    <t>32219jkldla</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>ABS12377</t>
+  </si>
+  <si>
+    <t>aksljdladjka</t>
+  </si>
+  <si>
+    <t>BBS32188</t>
+  </si>
+  <si>
+    <t>SBB41209</t>
+  </si>
+  <si>
+    <t>asdasdadsa</t>
+  </si>
+  <si>
+    <t>eqweqwe</t>
   </si>
 </sst>
 </file>
@@ -386,42 +395,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FDE88E-3F81-479D-B8A6-07AE63AC40AB}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
-        <v>4000</v>
+      <c r="C1">
+        <v>32132132131</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>3100</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>475279939</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>11000</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>32132131</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>